--- a/biology/Histoire de la zoologie et de la botanique/Robert_Chinnock/Robert_Chinnock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Chinnock/Robert_Chinnock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert James « Bob » Chinnock (né le 3 juillet 1943 à Wellington en Nouvelle-Zélande[1]) est un botaniste australien qui a travaillé comme biologiste à l'herbier d'Australie-Méridionale (en). Il a pris sa retraite en 2008 mais continue à travailler en tant qu'associé de recherche honoraire[2].
-Parmi ses thèmes de recherche figurent les plantes du genre Eremophila[3] et des genres apparentés, les  Cactées à raquettes, particulièrement celles du genre Opuntia, et les fougères et lycopodes d'Australie[2].
-Sa thèse de 1982 à l'université Flinders était consacrée aux Myoporaceae[4]
-Il est l'auteur d’Eremophila and allied genera: a monograph of the plant  family Myoporaceae[5] (les plantes de ces genres sont maintenant toutes incluses dans la famille des Scrophulariaceae).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert James « Bob » Chinnock (né le 3 juillet 1943 à Wellington en Nouvelle-Zélande) est un botaniste australien qui a travaillé comme biologiste à l'herbier d'Australie-Méridionale (en). Il a pris sa retraite en 2008 mais continue à travailler en tant qu'associé de recherche honoraire.
+Parmi ses thèmes de recherche figurent les plantes du genre Eremophila et des genres apparentés, les  Cactées à raquettes, particulièrement celles du genre Opuntia, et les fougères et lycopodes d'Australie.
+Sa thèse de 1982 à l'université Flinders était consacrée aux Myoporaceae
+Il est l'auteur d’Eremophila and allied genera: a monograph of the plant  family Myoporaceae (les plantes de ces genres sont maintenant toutes incluses dans la famille des Scrophulariaceae).
 </t>
         </is>
       </c>
